--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_012.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_012.xlsx
@@ -31,310 +31,316 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295026EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) LPCS</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295005AA2.09) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
-  </si>
-  <si>
-    <t>(295016AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Disabling/transferring control room controls</t>
-  </si>
-  <si>
-    <t>(295021AK2.07) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation</t>
-  </si>
-  <si>
-    <t>(295023AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Fuel positioning</t>
-  </si>
-  <si>
-    <t>(600000AA1.01) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Respirator air pack</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295001AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor power response</t>
-  </si>
-  <si>
-    <t>(700000AK2.08) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Main turbine generator and auxiliary systems</t>
-  </si>
-  <si>
-    <t>(295006AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Pressure control</t>
-  </si>
-  <si>
-    <t>(295018AA1.08) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Plant operations</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
-  </si>
-  <si>
-    <t>(295037EK2.17) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(295024EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Emergency generators</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295012AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.5 / 45.6) Increased drywell cooling</t>
-  </si>
-  <si>
-    <t>(295032EK2.05) Knowledge of the relationship between the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Temperature sensitive instrumentation</t>
-  </si>
-  <si>
-    <t>(295010AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell temperature increase</t>
-  </si>
-  <si>
-    <t>(295014AA1.08) Ability to operate and/or monitor the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.7 / 45.6) HPCI</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295033EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan</t>
-  </si>
-  <si>
-    <t>(217000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(215004K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RMCS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(203000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) NPSH limits</t>
-  </si>
-  <si>
-    <t>(262002K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(215003K4.02) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor SCRAM signals</t>
-  </si>
-  <si>
-    <t>(218000A4.03) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic reset</t>
-  </si>
-  <si>
-    <t>(211000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Plant air systems</t>
-  </si>
-  <si>
-    <t>(400000A3.03) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Spent fuel pool cooling</t>
-  </si>
-  <si>
-    <t>(212000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) RPS bus status</t>
-  </si>
-  <si>
-    <t>(223002K3.26) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(259002K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Water level measurement</t>
-  </si>
-  <si>
-    <t>(300000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Component cooling water system</t>
-  </si>
-  <si>
-    <t>(209001A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (291002K1.09) SENSORS AND DETECTORS (CFR: 41.7) (LEVEL) Modes of failure</t>
-  </si>
-  <si>
-    <t>(205000K2.01) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Pump motors</t>
-  </si>
-  <si>
-    <t>(215005K4.06) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Effects of detector aging on LPRM/APRM readings</t>
-  </si>
-  <si>
-    <t>(261000A4.07) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System flow</t>
-  </si>
-  <si>
-    <t>(262001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Emergency generators</t>
-  </si>
-  <si>
-    <t>(264000A3.06) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Cooling water system operation</t>
-  </si>
-  <si>
-    <t>(217000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) RCIC turbine speed</t>
-  </si>
-  <si>
-    <t>(215004K3.04) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power indication</t>
-  </si>
-  <si>
-    <t>(203000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Vortex limits</t>
-  </si>
-  <si>
-    <t>(262002K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(202002K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.7 / 45.7) Flow controller failure</t>
-  </si>
-  <si>
-    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(290002K4.04) Knowledge of (SF4 RVI) REACTOR VESSEL INTERNALS design features and/or interlocks that provide for the following: (CFR: 41.7) Moisture removal from steam</t>
-  </si>
-  <si>
-    <t>(256000K3.12) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) HPCI</t>
-  </si>
-  <si>
-    <t>(201005K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.5 to 41.7 / 45.3 / 45.5) Target rod pattern</t>
-  </si>
-  <si>
-    <t>(271000K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 OG) OFFGAS SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 / 41.14 / 45.6 to 45.8) Hydrogen water chemistry system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239001A2.08) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low condenser vacuum </t>
-  </si>
-  <si>
-    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(272000K2.04) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(201001K4.10) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Control of rod movement with HCU directional control valves</t>
-  </si>
-  <si>
-    <t>(268000A4.02) Ability to manually operate and/or monitor the (SF9 RW) RADWASTE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Primary containment sump pumps</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292008K1.19) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain transient and steady-state effects of a control rod withdrawal on reactor power and void fraction content</t>
-  </si>
-  <si>
-    <t>(292005K1.12) CONTROL RODS (CFR: 41.1) Describe effects of deep and shallow control rods on axial and radial flux distribution</t>
-  </si>
-  <si>
-    <t>(292004K1.01) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the moderator temperature coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(293008K1.34) THERMAL HYDRAULICS (CFR: 41.14) (NATURAL CIRCULATION) Explain the causes of natural circulation in BWRs</t>
-  </si>
-  <si>
-    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
-  </si>
-  <si>
-    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(295031EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Alternate injection systems</t>
+  </si>
+  <si>
+    <t>(295026EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Suppression pool cooling</t>
+  </si>
+  <si>
+    <t>(295021AK2.03) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) RHR/shutdown cooling</t>
+  </si>
+  <si>
+    <t>(295023AA2.03) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Airborne contamination levels</t>
+  </si>
+  <si>
+    <t>(295018AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Starting the standby pump</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EA1.13) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Radwaste system</t>
+  </si>
+  <si>
+    <t>(700000AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Voltage disturbance</t>
+  </si>
+  <si>
+    <t>(295003AK2.01) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Station batteries</t>
+  </si>
+  <si>
+    <t>(295001AA2.09) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295019AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Dryer/filter realignment</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(295005AA1.03) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(295030EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) SRV discharge submergence</t>
+  </si>
+  <si>
+    <t>(295006AK2.02) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295037EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295024EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Secondary containment/auxiliary building isolation</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295010AK2.07) Knowledge of the relationship between the (APE 10) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water</t>
+  </si>
+  <si>
+    <t>(295011AA2.01) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(295034EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.5 / 45.6) Personnel evacuation</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295007AA1.08) Ability to operate and/or monitor the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(295029EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Venting the suppression pool (Mark I containment)</t>
+  </si>
+  <si>
+    <t>(209001K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Drywell cooling</t>
+  </si>
+  <si>
+    <t>(215004K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) RPS</t>
+  </si>
+  <si>
+    <t>(300000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Instrument air supply pressure</t>
+  </si>
+  <si>
+    <t>(510000A2.01) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/motor failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(218000A3.01) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS valves </t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259002K4.13) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) FWRV lockup</t>
+  </si>
+  <si>
+    <t>(239002A4.01) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
+  </si>
+  <si>
+    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
+  </si>
+  <si>
+    <t>(212000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 RPS) REACTOR PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(262002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Motor generator operation</t>
+  </si>
+  <si>
+    <t>(215003K3.05) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) APRM system</t>
+  </si>
+  <si>
+    <t>(205000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Service water</t>
+  </si>
+  <si>
+    <t>(264000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Gas generator temperature</t>
+  </si>
+  <si>
+    <t>(209002A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(203000A3.08) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) System initiation sequence </t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (291004K1.20) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Discuss relationship among head, flow, speed, and power</t>
+  </si>
+  <si>
+    <t>(262001K4.02) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Circuit breaker automatic trips</t>
+  </si>
+  <si>
+    <t>(211000A4.08) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System initiation</t>
+  </si>
+  <si>
+    <t>(263000K2.04) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Inverters</t>
+  </si>
+  <si>
+    <t>(215005K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) TIP</t>
+  </si>
+  <si>
+    <t>(400000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.5 / 45.3) Determine source(s) of RCS leakage into CCW</t>
+  </si>
+  <si>
+    <t>(209001K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
+  </si>
+  <si>
+    <t>(215004K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detectors</t>
+  </si>
+  <si>
+    <t>(300000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(510000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/discharge blockage</t>
+  </si>
+  <si>
+    <t>(286000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FPS) FIRE PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Intake canals</t>
+  </si>
+  <si>
+    <t>(510001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pump suction low level</t>
+  </si>
+  <si>
+    <t>(216000K3.16) Knowledge of the effect that a loss or malfunction of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main turbine generator and auxiliary systems</t>
+  </si>
+  <si>
+    <t>(245000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.7 / 45.7) Main and reheat steam</t>
+  </si>
+  <si>
+    <t>(219000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) System lights and alarms</t>
+  </si>
+  <si>
+    <t>(234000A2.02) Ability to (a) predict the impacts of the following on the (SF8 FH) FUEL HANDLING and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of refueling platform air</t>
+  </si>
+  <si>
+    <t>(201005A3.02) Ability to monitor automatic operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.7 / 45.7) Rod display module lights</t>
+  </si>
+  <si>
+    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(239003K4.07) Knowledge of (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Reduction of MSIV leakage temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(202002A4.02) Ability to manually operate and/or monitor the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Hydraulic power unit (BWR 5, 6) </t>
+  </si>
+  <si>
+    <t>(288000K2.02) (SF9 PVS) PLANT VENTILATION SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Auxiliary building supply and exhaust fans (turbine building/radwaste building)</t>
+  </si>
+  <si>
+    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(292003K1.05) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define reactor period</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292006K1.03) FISSION PRODUCT POISONS (CFR: 41.1) Describe the production of xenon-135</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(293008K1.29) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Describe the effects of increasing bundle power on bundle flow resistance</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
   </si>
   <si>
     <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
   </si>
   <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295002AA2.07) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(510000A2.04) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pipe leakage/rupture</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(215003A2.04) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale or downscale trips</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(245000A2.07) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of reactor/turbine regulating control system</t>
-  </si>
-  <si>
-    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(223001A2.11) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal suppression pool level</t>
-  </si>
-  <si>
-    <t>(G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295014AA2.05) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Violation of safety limits</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295012AA2.01) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
+  </si>
+  <si>
+    <t>(218000A2.06) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS initiation signals present</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259002A2.08) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Receipt of an ECCS initiation signal: FWCI</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(223002A2.02) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) DC electrical distribution failures</t>
+  </si>
+  <si>
+    <t>(271000) (SF9 OG) OFFGAS SYSTEM (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(233000A2.19) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system/pool chemistry</t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>G</t>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>A2</t>
@@ -343,27 +349,21 @@
     <t>K3</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K1</t>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,22 +385,58 @@
     <t>T</t>
   </si>
   <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295019</t>
   </si>
   <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295023</t>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295024</t>
   </si>
   <si>
     <t>600000</t>
@@ -409,193 +445,157 @@
     <t>295027</t>
   </si>
   <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295038</t>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295020</t>
   </si>
   <si>
     <t>295012</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
     <t>271000</t>
   </si>
   <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>286000</t>
+    <t>233000</t>
   </si>
   <si>
     <t>272000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>223001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1531,7 +1531,7 @@
         <v>3.7</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D44" t="s">
         <v>116</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1956,7 +1956,7 @@
         <v>2.7</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2296,7 +2296,7 @@
         <v>3.9</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
